--- a/biology/Zoologie/Imantodes_lentiferus/Imantodes_lentiferus.xlsx
+++ b/biology/Zoologie/Imantodes_lentiferus/Imantodes_lentiferus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imantodes lentiferus  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imantodes lentiferus  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre dans la forêt amazonienne[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre dans la forêt amazonienne :
 en Bolivie ;
 au Brésil dans les États d'Amazonas et du Mato Grosso ;
 dans le sud de la Colombie ;
@@ -548,9 +562,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imantodes lentiferus est très fin et possède de grand yeux, la pupille est verticale. Il atteint environ 1 m à l'âge adulte[2]. Cette espèce ressemble beaucoup à Imantodes cenchoa, avec lequel il partage son aire de répartition. Cependant, Imantodes lentiferus possède un motif moins contrasté, et n'a pas de motif sur la nuque.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imantodes lentiferus est très fin et possède de grand yeux, la pupille est verticale. Il atteint environ 1 m à l'âge adulte. Cette espèce ressemble beaucoup à Imantodes cenchoa, avec lequel il partage son aire de répartition. Cependant, Imantodes lentiferus possède un motif moins contrasté, et n'a pas de motif sur la nuque.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce habite la forêt tropicale humide. Il se nourrit en grande partie d'amphibiens[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce habite la forêt tropicale humide. Il se nourrit en grande partie d'amphibiens.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cope, 1894 :  On the species of Himantodes Dumeril and Bibron. The American naturalist, vol. 28, p. 612-614 (texte intégral).</t>
         </is>
